--- a/pred_ohlcv/54_21/2019-10-26 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 BTG ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>2254.1497</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2400.3885</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>3060.5642</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -834,7 +834,7 @@
         <v>3061.4523</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>3023.5417</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>3029.5417</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>2976.595</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>2976.595</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>2873.6944</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>3993.427476</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>3992.427476</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>3992.427476</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>4013.080676</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>5148.514376</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>4928.366176</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>5075.366176</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>4990.016676</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>4989.016676</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>5001.325276</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>4091.466876</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>4093.566876</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>3966.324876</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>4800.1162</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>4800.1162</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>4755.88838325</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>4655.88838325</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>4673.88838325</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>4673.88838325</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>4673.88838325</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>4673.88838325</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>4669.88838325</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>4748.87938325</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>4736.87938325</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>4698.302821929999</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>4661.321421929999</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>8990.697314519999</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>8966.096714519999</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>9129.89341452</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>9167.034514520001</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>9199.76611452</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>9199.76611452</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>9779.595123179999</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>10534.07962999</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>10285.10452999</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>10116.62192999</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>9909.754029990001</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>10558.97332999</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>10522.02602999</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>10524.02602999</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>10390.72802999</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>10390.82802999</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>10390.82802999</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>10390.92802999</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>10386.12802999</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>10375.05282999</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>10374.95282999</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>10375.05282999</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>10542.84272999</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>10415.55812999</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>10365.93312999</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>9275.955129990001</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>9275.955129990001</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>9424.487029990001</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>7449.304430570002</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>6771.895430570002</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 BTG ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>2254.1497</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3215.4678</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>3035.9198</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>3058.4715</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,7 +834,7 @@
         <v>3061.4523</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>3023.5417</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>3023.5417</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>3029.5417</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>2976.595</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>2976.595</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>2873.6944</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>3993.427476</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>3992.427476</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>3992.427476</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>4013.080676</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>5148.514376</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>4928.366176</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>5075.366176</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>4990.016676</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>4989.016676</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>5001.325276</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>4091.466876</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>4093.566876</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>3966.324876</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>4800.1162</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>4800.1162</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>4755.88838325</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>4655.88838325</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>4673.88838325</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>4673.88838325</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>4673.88838325</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>4673.88838325</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>4669.88838325</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>4748.87938325</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>4736.87938325</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>4698.302821929999</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>4661.321421929999</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>9535.80421452</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>9679.827414519999</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>9466.786314519999</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>9466.886314519999</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>9478.886314519999</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>9452.886314519999</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>8984.697314519999</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>8990.697314519999</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>9191.697314519999</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>8752.141214519999</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>8752.141214519999</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>8966.096714519999</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>8966.096714519999</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>8966.096714519999</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>8966.096714519999</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>8966.096714519999</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>8974.096714519999</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>8553.287814519999</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>8553.287814519999</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>8707.89341452</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>8707.89341452</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>9129.89341452</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>9129.89341452</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>9167.034514520001</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>9199.76611452</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>9199.76611452</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>9779.595123179999</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>10534.07962999</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>10285.10452999</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>10116.62192999</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>9909.754029990001</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>10558.97332999</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>10522.02602999</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>10524.02602999</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>10390.72802999</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>10390.82802999</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>10390.82802999</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>10390.92802999</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>10386.12802999</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>10375.05282999</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>10374.95282999</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>10375.05282999</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>10542.84272999</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>10415.55812999</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>10365.93312999</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>9275.955129990001</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>9145.498229990002</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>7449.304430570002</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>6771.895430570002</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
